--- a/biology/Médecine/Right_to_know_(ONG)/Right_to_know_(ONG).xlsx
+++ b/biology/Médecine/Right_to_know_(ONG)/Right_to_know_(ONG).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ONG Right to know ou USRTK (« droit de savoir » en Français) est une ONG américaine se présentant comme voulant donner aux citoyens des moyens de participer de manière éclairée aux décisions qui les concernent, tout en tenant les gouvernements et autres parties prenantes responsables ; elle promeut et recherche un accès universel à l'information notamment concernant les pesticides et les OGM (elle demande notamment l'étiquetage obligatoire aux États-Unis des aliments transgéniques et des aliments contenant des OGM, de manière que les acheteurs puissent librement choisir ce qu'ils mangent). Selon Right to know, cet accès à l'information est une condition nécessaire à la vie dans des sociétés du savoir inclusives[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ONG Right to know ou USRTK (« droit de savoir » en Français) est une ONG américaine se présentant comme voulant donner aux citoyens des moyens de participer de manière éclairée aux décisions qui les concernent, tout en tenant les gouvernements et autres parties prenantes responsables ; elle promeut et recherche un accès universel à l'information notamment concernant les pesticides et les OGM (elle demande notamment l'étiquetage obligatoire aux États-Unis des aliments transgéniques et des aliments contenant des OGM, de manière que les acheteurs puissent librement choisir ce qu'ils mangent). Selon Right to know, cet accès à l'information est une condition nécessaire à la vie dans des sociétés du savoir inclusives,. 
 l'ONG s'est surtout fait connaître en demandant via la justice les échanges de courriers électroniques avec des sociétés de biotechnologie telles que Monsanto, Syngenta et DuPont, ainsi qu'avec d'autres organisations, notamment la Grocery Manufacturers Association et le Council for Biotechnology Information, et en ayant réussi à obtenir une grande quantité de documents internes de Monsanto (Monsanto papers).
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Right to know se réfère au « droit de savoir » tels que notamment présenté dans le livre de Rachel Carson, Silent Spring[3] et au droit légal baptisé Right to know inscrit dans le droit américain (et qui a un équivalent dans le droit européen de l'environnement et dans le droit de nombreux pays).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Right to know se réfère au « droit de savoir » tels que notamment présenté dans le livre de Rachel Carson, Silent Spring et au droit légal baptisé Right to know inscrit dans le droit américain (et qui a un équivalent dans le droit européen de l'environnement et dans le droit de nombreux pays).
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Critiques adressées à l'association</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les représentants des lobby de l'Industrie alimentaire et de l'industrie agroalimentaire reprochent à l'association Right to know d'être partisane car ayant déclaré sur son site internet avoir reçu des financement de l'Organic Consumers Association (OCA, opposée à la cultures des OGM en plein champs et demandant leur étiquetage, et souvent considéré comme le lobby américain de l'agriculture bio).
-Dans un article[4] écrit à 3 mains et publié par le journal The Guardian en 2015, Nina Fedoroff, Peter Raven and Phillip Sharp s'y présentent comme « trois anciens présidents de l'Association américaine pour l'avancement des sciences » et accusent Right to know d'être « un groupe de pression anti-OGM (...), une émanation de la campagne californienne ratée promouvant l'étiquetage des OGM », et responsable d'une « attaque organisée contre la science ». Les 3 auteurs y affirment que l'ONG a ciblé 14 scientifiques américains de haut niveau, après les avoir identifiés en ayant utilisé la loi américaine Freedom of Information Act (FoIA) pour obtenir de la justice un accès à des années de courriels privés et autres correspondances de ces scientifiques.
+Dans un article écrit à 3 mains et publié par le journal The Guardian en 2015, Nina Fedoroff, Peter Raven and Phillip Sharp s'y présentent comme « trois anciens présidents de l'Association américaine pour l'avancement des sciences » et accusent Right to know d'être « un groupe de pression anti-OGM (...), une émanation de la campagne californienne ratée promouvant l'étiquetage des OGM », et responsable d'une « attaque organisée contre la science ». Les 3 auteurs y affirment que l'ONG a ciblé 14 scientifiques américains de haut niveau, après les avoir identifiés en ayant utilisé la loi américaine Freedom of Information Act (FoIA) pour obtenir de la justice un accès à des années de courriels privés et autres correspondances de ces scientifiques.
 </t>
         </is>
       </c>
